--- a/API-tests.xlsx
+++ b/API-tests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="API-tests" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+  <si>
+    <t>Traceability between API and tests matrix</t>
+  </si>
   <si>
     <t>Class</t>
   </si>
@@ -41,26 +44,19 @@
     <t>join</t>
   </si>
   <si>
-    <t>tests.person.Sample.main
-tests.shapes</t>
-  </si>
-  <si>
-    <t>dcrud-c-test</t>
-  </si>
-  <si>
-    <t>dcrud-cpp-test</t>
+    <t>Tous</t>
+  </si>
+  <si>
+    <t>leave</t>
   </si>
   <si>
     <t>IParticipant</t>
   </si>
   <si>
-    <t>registerClass</t>
-  </si>
-  <si>
-    <t>tests.person.Sample.main</t>
-  </si>
-  <si>
-    <t>registerPublisher</t>
+    <t>registerLocalFactory</t>
+  </si>
+  <si>
+    <t>registerRemoteFactory</t>
   </si>
   <si>
     <t>createCache  </t>
@@ -135,16 +131,19 @@
     <t>call</t>
   </si>
   <si>
-    <t>SYNCHRONOUS
-URGENT_QUEUE</t>
-  </si>
-  <si>
-    <t>tests.person</t>
-  </si>
-  <si>
-    <t>ASYNCHRONOUS_DEFERRED
-NORMAL_QUEUE
-NON_URGENT_QUEUE</t>
+    <t>SYNCHRONOUS</t>
+  </si>
+  <si>
+    <t>URGENT_QUEUE</t>
+  </si>
+  <si>
+    <t>ASYNCHRONOUS_DEFERRED</t>
+  </si>
+  <si>
+    <t>NORMAL_QUEUE</t>
+  </si>
+  <si>
+    <t>NON_URGENT_QUEUE</t>
   </si>
   <si>
     <t>ASYNCHRONOUS_IMMEDIATE</t>
@@ -169,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -200,11 +199,19 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
+      <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -217,12 +224,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -265,7 +278,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -279,11 +292,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -294,16 +311,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -323,420 +340,427 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.9642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.0714285714286"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="34.9183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="27.0867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.75"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.1020408163265"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="15.6071428571429"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
